--- a/Dashboard_19_20.xlsx
+++ b/Dashboard_19_20.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B842182C-6291-4115-8389-2C512093B9E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8622A4CB-758D-4049-B4EA-4BF41F34638A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="723" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="723" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -25,9 +25,9 @@
     <definedName name="Slicer_Month">#N/A</definedName>
     <definedName name="Slicer_Year">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="71">
   <si>
     <t>Year</t>
   </si>
@@ -206,10 +206,6 @@
 and we can reduce the age group 55-64 since thwy have the worse convertion rate in engagement</t>
   </si>
   <si>
-    <t>Bubble Cleaning FB insights
-2019-2020</t>
-  </si>
-  <si>
     <t>% of Reach</t>
   </si>
   <si>
@@ -274,7 +270,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,17 +344,8 @@
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,14 +363,8 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -469,92 +450,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -611,33 +512,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1150,6 +1024,72 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="34925" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
           <c:showLegendKey val="0"/>
@@ -1528,7 +1468,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-1DC7-444B-9F71-E2C7D2E109CC}"/>
+              <c16:uniqueId val="{00000004-EFAF-4A46-956E-E899FCCB1F2F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1719,7 +1659,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.82850000000000001"/>
           <c:y val="2.2708880139982485E-2"/>
-          <c:w val="0.11058676066466713"/>
+          <c:w val="0.14341505607253641"/>
           <c:h val="0.15121073575480487"/>
         </c:manualLayout>
       </c:layout>
@@ -2198,6 +2138,115 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="34925" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -2563,7 +2612,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-2B8D-42EA-B399-845EAA76276C}"/>
+              <c16:uniqueId val="{00000004-063A-401E-9506-1C1CF19584A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2754,8 +2803,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.82850000000000001"/>
           <c:y val="2.2708880139982485E-2"/>
-          <c:w val="0.12443985126885798"/>
-          <c:h val="0.15121073575480487"/>
+          <c:w val="0.13182850695302428"/>
+          <c:h val="0.1717990332338992"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3087,6 +3136,77 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
           <a:gradFill rotWithShape="1">
             <a:gsLst>
               <a:gs pos="0">
@@ -3153,7 +3273,10 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3163,7 +3286,7 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="outEnd"/>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -3418,29 +3541,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:shade val="51000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="80000">
-                  <a:schemeClr val="accent2">
-                    <a:shade val="93000"/>
-                    <a:satMod val="130000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:shade val="94000"/>
-                    <a:satMod val="135000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3610,7 +3713,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-EEEE-406B-8AB1-137FD98EE0AE}"/>
+              <c16:uniqueId val="{00000004-E999-4051-878E-23EE6D931228}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3810,8 +3913,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.80501233218338852"/>
           <c:y val="3.4969795442236384E-2"/>
-          <c:w val="0.12178879475290146"/>
-          <c:h val="0.15121073575480487"/>
+          <c:w val="0.10968178794452009"/>
+          <c:h val="0.18255334214336041"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3854,8 +3957,9 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="tx2">
-        <a:lumMod val="60000"/>
-        <a:lumOff val="40000"/>
+        <a:lumMod val="40000"/>
+        <a:lumOff val="60000"/>
+        <a:alpha val="79000"/>
       </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -11021,18 +11125,185 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>256441</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>48846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>97692</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>232020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B647E7D-99CF-4456-9000-21BB90BED9CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10892691" y="48846"/>
+          <a:ext cx="5336443" cy="1050193"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="32000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="balanced" dir="t">
+            <a:rot lat="0" lon="0" rev="8700000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="38100"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85481</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>138919</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12210</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3979804-A1CA-4DD1-AAB5-8891D2794C8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85481" y="4286249"/>
+          <a:ext cx="16184880" cy="3223846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="32000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="balanced" dir="t">
+            <a:rot lat="0" lon="0" rev="8700000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="38100"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>131444</xdr:colOff>
+      <xdr:colOff>94811</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>109907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>819149</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>782516</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>207599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11061,12 +11332,33 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="131444" y="0"/>
-          <a:ext cx="1297305" cy="1143000"/>
+          <a:off x="94811" y="109907"/>
+          <a:ext cx="1298282" cy="1074615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="32000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="balanced" dir="t">
+            <a:rot lat="0" lon="0" rev="8700000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="38100"/>
+        </a:sp3d>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -11074,15 +11366,96 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:colOff>85484</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>24422</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>6857</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>138922</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>97692</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B59741-5F1C-4E33-A9E6-AC7323483A00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85484" y="1074614"/>
+          <a:ext cx="16184880" cy="3199424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="32000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="balanced" dir="t">
+            <a:rot lat="0" lon="0" rev="8700000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="38100"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>346568</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234710</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>43814</xdr:rowOff>
+      <xdr:rowOff>147468</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11111,19 +11484,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>429363</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>411479</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>20716</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>143855</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Year">
@@ -11146,7 +11519,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11156,8 +11529,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5942692" y="118835"/>
-              <a:ext cx="809716" cy="942976"/>
+              <a:off x="11077310" y="177802"/>
+              <a:ext cx="814564" cy="948632"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11189,19 +11562,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9522</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>282333</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>607160</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>143855</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Month">
@@ -11226,7 +11599,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11236,8 +11609,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6855280" y="109308"/>
-              <a:ext cx="3968750" cy="952503"/>
+              <a:off x="12153491" y="168275"/>
+              <a:ext cx="3994458" cy="958159"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11269,16 +11642,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>586635</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>152158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>232410</xdr:colOff>
+      <xdr:colOff>120643</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>43814</xdr:rowOff>
+      <xdr:rowOff>147468</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11307,16 +11680,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>383197</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>137504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>6857</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>139064</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>527782</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>132814</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11345,16 +11718,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>173264</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209899</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>234224</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>129539</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>598365</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>134335</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11383,16 +11756,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>512886</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>535305</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>43815</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>256444</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>134335</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11422,15 +11795,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>410796</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>189043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>573942</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>146546</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11455,6 +11828,95 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>854808</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>55685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>207604</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219807</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C37F2B-5486-4244-A523-C569FD3A05FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1465385" y="55685"/>
+          <a:ext cx="9378469" cy="1141045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="44450" dist="27940" dir="5400000" algn="ctr">
+            <a:srgbClr val="000000">
+              <a:alpha val="32000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="0"/>
+          </a:camera>
+          <a:lightRig rig="balanced" dir="t">
+            <a:rot lat="0" lon="0" rev="8700000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="190500" h="38100"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="3200" b="1"/>
+            <a:t>Bubble</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="3200" b="1" baseline="0"/>
+            <a:t> Cleaning - Facebook Analysis 2019-2020</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="3200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11714,13 +12176,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="L2" t="str">
-            <v>Total Number of Reach</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6">
@@ -12143,7 +12599,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D25AEF6-9A9D-4DF8-96AA-FE88EF238376}" name="Reach" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D25AEF6-9A9D-4DF8-96AA-FE88EF238376}" name="Reach" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:D17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -12288,7 +12744,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{973C5943-4DC1-42A9-8D09-7B02A820A3F4}" name="Engagement" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{973C5943-4DC1-42A9-8D09-7B02A820A3F4}" name="Engagement" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:D17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -12385,7 +12841,7 @@
   <dataFields count="1">
     <dataField name="Sum of Daily Page Engaged Users" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="3">
     <chartFormat chart="2" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -12410,6 +12866,15 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -12424,7 +12889,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F8BCE10-CB18-43C5-A280-215C3151008E}" name="Impressions" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F8BCE10-CB18-43C5-A280-215C3151008E}" name="Impressions" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:D17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -12521,7 +12986,7 @@
   <dataFields count="1">
     <dataField name="Sum of Daily Total Impressions" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="3">
     <chartFormat chart="2" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -12546,6 +13011,15 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -12560,7 +13034,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53660A90-CDF8-4EF3-8FE2-C54B7A266AC7}" name="OrgReach2020" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53660A90-CDF8-4EF3-8FE2-C54B7A266AC7}" name="OrgReach2020" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -12736,7 +13210,7 @@
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Year" xr10:uid="{270EEE32-B948-4532-89EF-75CC7D4FA7AE}" cache="Slicer_Year" caption="Year" showCaption="0" style="SlicerStyleDark2" rowHeight="365760"/>
-  <slicer name="Month" xr10:uid="{813AA1B5-30FE-4FC7-9AF8-D956A98FB727}" cache="Slicer_Month" caption="Month" columnCount="4" showCaption="0" style="SlicerStyleDark5" rowHeight="241300"/>
+  <slicer name="Month" xr10:uid="{813AA1B5-30FE-4FC7-9AF8-D956A98FB727}" cache="Slicer_Month" caption="Month" columnCount="4" showCaption="0" style="SlicerStyleDark1" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -13110,10 +13584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:I4"/>
+  <dimension ref="B1:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13121,42 +13595,14 @@
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
+    <row r="1" spans="2:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="22"/>
     </row>
-    <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="22"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-    </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-    </row>
+    <row r="4" spans="2:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>
-  <mergeCells count="1">
-    <mergeCell ref="C2:I4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -13221,7 +13667,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -14054,7 +14500,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25">
         <f>SUBTOTAL(109,Page_insights_months[Daily Total Reach])</f>
@@ -14090,7 +14536,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6j3/WlPcjcC8xEwxGy+CvrqvLj3IDRLa8c02RZjsLRf94NuIUSN2QhrMpcIvtQF4YVm51LQqGxebImMLxZ+/CA==" saltValue="YoCA06ANT/QoPV8CPfuAag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -14113,7 +14558,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -14142,7 +14587,7 @@
         <v>2019</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -14171,7 +14616,7 @@
         <v>2019</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -14200,7 +14645,7 @@
         <v>2019</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -14229,7 +14674,7 @@
         <v>2019</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -14258,7 +14703,7 @@
         <v>2019</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -14287,7 +14732,7 @@
         <v>2019</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -14316,7 +14761,7 @@
         <v>2019</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -14345,7 +14790,7 @@
         <v>2020</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>1557</v>
@@ -14374,7 +14819,7 @@
         <v>2020</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10">
         <v>1059</v>
@@ -14403,7 +14848,7 @@
         <v>2020</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11">
         <v>1408</v>
@@ -14432,7 +14877,7 @@
         <v>2020</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12">
         <v>1040</v>
@@ -14461,7 +14906,7 @@
         <v>2020</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <v>1530</v>
@@ -14490,7 +14935,7 @@
         <v>2020</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14">
         <v>2907</v>
@@ -14519,7 +14964,7 @@
         <v>2020</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <v>2762</v>
@@ -14544,7 +14989,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bHV6WFytXzNn4Zq0S4BOe7Nsz3ni3dBUuy8bks81FW/Uey+FQPLQBE9EAVdgFyhoyo6szwsVyZWMh1S21V/fTw==" saltValue="ArzD+9RUqMDrbKxqsK41Iw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -14771,7 +15215,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x0vEJHxvZqZJabe6tVjVMNXbCdSt8+0RXV4zhvY2JxdgoRl+M2TtPywrIX5ApDnNFSP47AiGNizdQLAGmvbGhA==" saltValue="na5hIMFRm+NPLEOgzlhbEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14995,7 +15438,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3FJfbODywHO5TZ1gKnFiedeO6SawwahX7djbVLBXiWeDQ8KQhjNNZezHShL2gkSzsTS1I4zGjFpM4QoBmvSfkg==" saltValue="Ed4cZeJ05TasB/e4tVewIA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15219,7 +15661,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0rHAkQoWAmdbVsgyd9trSOqfUtq6bDkbVxtyB7QmRqZy6wmL0zmMZynvIt/W5749nDE+QyrF/eRudPOSLnMpAQ==" saltValue="vI0pF52k5JTUvE4prUu1Ng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15591,15 +16032,15 @@
       <c r="I37" s="14">
         <v>1.7</v>
       </c>
-      <c r="L37" s="37" t="s">
+      <c r="L37" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -15629,13 +16070,13 @@
       <c r="I38" s="14">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D39" s="21">
@@ -15662,40 +16103,40 @@
         <f t="shared" si="5"/>
         <v>13.409999999999998</v>
       </c>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="hGCh1KEleYMiKM6BAeIu86G9rh+AJa+D7e/0od8XlST76UlUcdZ3vPEymmhxrz0npGwgnSTR3hgYhTgS+Quruw==" saltValue="blqX1VNFMiF5WWo0SdpiCw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -15741,13 +16182,13 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -15828,7 +16269,7 @@
         <v>1939</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9">
         <v>125</v>
@@ -15914,12 +16355,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -15927,24 +16368,24 @@
         <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="G5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>16</v>
@@ -15957,7 +16398,7 @@
         <v>34.0625</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="21">
         <v>161</v>
@@ -15965,7 +16406,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -15978,7 +16419,7 @@
         <v>92.875</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" s="21">
         <v>165.5</v>
@@ -15986,7 +16427,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>23</v>
@@ -15999,7 +16440,7 @@
         <v>134.2608695652174</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="21">
         <v>181.25</v>
@@ -16007,7 +16448,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -16020,7 +16461,7 @@
         <v>161</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="21">
         <v>181.66666666666666</v>
@@ -16028,7 +16469,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -16041,7 +16482,7 @@
         <v>165.5</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="21">
         <v>185.75</v>
@@ -16049,7 +16490,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -16062,7 +16503,7 @@
         <v>362.5</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="21">
         <v>187.43478260869566</v>
@@ -16070,7 +16511,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -16083,7 +16524,7 @@
         <v>1437</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="21">
         <v>193</v>
@@ -16091,7 +16532,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="7">
         <f>SUM(B6:B13)</f>

--- a/Dashboard_19_20.xlsx
+++ b/Dashboard_19_20.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8622A4CB-758D-4049-B4EA-4BF41F34638A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F8885D-1E81-44A9-A810-96D9052084FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="723" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="3" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1025,6 +1025,29 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
           <a:ln w="34925" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1038,6 +1061,17 @@
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </c:spPr>
         <c:marker>
           <c:spPr>
@@ -2141,6 +2175,29 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
           <a:ln w="34925" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2154,6 +2211,17 @@
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </c:spPr>
         <c:marker>
           <c:spPr>
@@ -11134,7 +11202,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>97692</xdr:colOff>
+      <xdr:colOff>140368</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>232020</xdr:rowOff>
     </xdr:to>
@@ -11151,8 +11219,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10892691" y="48846"/>
-          <a:ext cx="5336443" cy="1050193"/>
+          <a:off x="10904388" y="48846"/>
+          <a:ext cx="5388375" cy="1165753"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11495,8 +11563,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>143855</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Year">
@@ -11519,7 +11587,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11573,8 +11641,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>143855</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Month">
@@ -11599,7 +11667,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -11907,7 +11975,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-GB" sz="3200" b="1"/>
-            <a:t>Bubble</a:t>
+            <a:t>Bubbles</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="3200" b="1" baseline="0"/>
@@ -12599,7 +12667,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D25AEF6-9A9D-4DF8-96AA-FE88EF238376}" name="Reach" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D25AEF6-9A9D-4DF8-96AA-FE88EF238376}" name="Reach" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:D17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -12744,7 +12812,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{973C5943-4DC1-42A9-8D09-7B02A820A3F4}" name="Engagement" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{973C5943-4DC1-42A9-8D09-7B02A820A3F4}" name="Engagement" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:D17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -12889,7 +12957,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F8BCE10-CB18-43C5-A280-215C3151008E}" name="Impressions" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F8BCE10-CB18-43C5-A280-215C3151008E}" name="Impressions" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:D17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -13034,7 +13102,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53660A90-CDF8-4EF3-8FE2-C54B7A266AC7}" name="OrgReach2020" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53660A90-CDF8-4EF3-8FE2-C54B7A266AC7}" name="OrgReach2020" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -13587,7 +13655,7 @@
   <dimension ref="B1:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
